--- a/Backtest Holy/backTest.xlsx
+++ b/Backtest Holy/backTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,62 @@
         <v>3.109940188005567</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02611439069733024</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01779608032666147</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.098769346252084</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02696150075644255</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01893808576278389</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.294585132971406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02599433809518814</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0175963097717613</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.088875999674201</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02605881914496422</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01749456068500876</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.050440223887563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backtest Holy/backTest.xlsx
+++ b/Backtest Holy/backTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,103 +443,108 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.02628433564677835</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0176101962570101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.070716466754675</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.09466264, 0.062838115, 18.06906759738922]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.06359993, 0.045054976, 8.427778631448746]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.029816974, 0.019023197, 3.4123659133911133]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[0.023631228, 0.016316945, 2.7751777321100235]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.02625013375654817</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01805118890479207</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.137510782107711</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[0.095917135, 0.06297829, 18.35486888885498]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.0647532, 0.04706844, 8.773232251405716]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.028927324, 0.019510191, 3.4431081265211105]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[0.024293326, 0.017080463, 2.897483855485916]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.02622806513682008</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01778089301660657</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.109940188005567</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[0.09655948, 0.063496545, 18.502183258533478]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.061445512, 0.043892883, 8.106819540262222]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.029682338, 0.019562759, 3.5060223191976547]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.023459885, 0.016294777, 2.778112515807152]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.02611439069733024</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01779608032666147</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.098769346252084</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02696150075644255</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01893808576278389</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.294585132971406</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.02599433809518814</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0175963097717613</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.088875999674201</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.02605881914496422</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01749456068500876</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.050440223887563</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[0.09610122, 0.062526844, 18.430933356285095]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.06253948, 0.044569056, 8.294756710529327]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.029287929, 0.019061701, 3.4009791910648346]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0.0237877, 0.016808793, 2.857517823576927]</t>
+        </is>
       </c>
     </row>
   </sheetData>
